--- a/Table.xlsx
+++ b/Table.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,12 +387,32 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Elie</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>Moroun</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>112233</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4444</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Table.xlsx
+++ b/Table.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,32 +387,17 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Elie</v>
+        <v>Gaby</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Moroun</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Anthony</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>112233</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>4444</v>
+        <v>gaby byentek</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
   </ignoredErrors>
 </worksheet>
 </file>